--- a/PIC16F628A/PWM/PWM Frequency.xlsx
+++ b/PIC16F628A/PWM/PWM Frequency.xlsx
@@ -41,10 +41,10 @@
     <t>PWM Resolution</t>
   </si>
   <si>
-    <t>Configuração de PWM</t>
+    <t>SET YOUR VALUES</t>
   </si>
   <si>
-    <t>SET YOUR VALUES</t>
+    <t>PWM Configuration</t>
   </si>
 </sst>
 </file>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,7 +1241,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="21"/>
       <c r="L5" s="1"/>
@@ -1380,6 +1380,7 @@
         <f t="shared" si="1"/>
         <v>4.3219280948873626</v>
       </c>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
